--- a/Dataset/Folds/Fold_2/Excel/4.xlsx
+++ b/Dataset/Folds/Fold_2/Excel/4.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1470" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1782" uniqueCount="300">
   <si>
     <t>Doi</t>
   </si>
@@ -1046,6 +1046,123 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%2,            Christopher%Gieraerts%NULL%2,            Christopher%Gieraerts%NULL%0,            Yves%De Bruecker%NULL%2,            Yves%De Bruecker%NULL%0,            Lode%Janssen%NULL%2,            Lode%Janssen%NULL%0,            Hanne%Valgaeren%NULL%2,            Hanne%Valgaeren%NULL%0,            Dagmar%Obbels%NULL%2,            Dagmar%Obbels%NULL%0,            Marc%Gillis%NULL%2,            Marc%Gillis%NULL%0,            Marc%Van Ranst%NULL%2,            Marc%Van Ranst%NULL%0,            Johan%Frans%NULL%1,            Annick%Demeyere%NULL%2,            Annick%Demeyere%NULL%0,            Rolf%Symons%rolf.symons@imelda.be%2,            Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,             Ben%Hsieh%NULL%1,             Zeng%Xiong%NULL%2,             Zeng%Xiong%NULL%0,             Kasey%Halsey%NULL%2,             Kasey%Halsey%NULL%0,             Ji Whae%Choi%NULL%2,             Ji Whae%Choi%NULL%0,             Thi My Linh%Tran%NULL%2,             Thi My Linh%Tran%NULL%0,             Ian%Pan%NULL%2,             Ian%Pan%NULL%0,             Lin-Bo%Shi%NULL%2,             Lin-Bo%Shi%NULL%0,             Dong-Cui%Wang%NULL%1,             Ji%Mei%NULL%2,             Ji%Mei%NULL%0,             Xiao-Long%Jiang%NULL%1,             Qiu-Hua%Zeng%NULL%1,             Thomas K.%Egglin%NULL%1,             Ping-Feng%Hu%NULL%2,             Ping-Feng%Hu%NULL%0,             Saurabh%Agarwal%NULL%1,             Fangfang%Xie%NULL%2,             Fangfang%Xie%NULL%0,             Sha%Li%NULL%1,             Terrance%Healey%NULL%2,             Terrance%Healey%NULL%0,             Michael K.%Atalay%NULL%1,             Wei-Hua%Liao%liaoweihua2017@163.com%2,             Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,             Zhenlu%Yang%NULL%2,             Zhenlu%Yang%NULL%0,             Hongyan%Hou%NULL%2,             Hongyan%Hou%NULL%0,             Chenao%Zhan%NULL%1,             Chong%Chen%NULL%1,             Wenzhi%Lv%NULL%2,             Wenzhi%Lv%NULL%0,             Qian%Tao%NULL%2,             Qian%Tao%NULL%0,             Ziyong%Sun%NULL%2,             Ziyong%Sun%NULL%0,             Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,             Marta%Zerunian%NULL%2,             Marta%Zerunian%NULL%0,             Michela%Polici%NULL%2,             Michela%Polici%NULL%0,             Francesco%Pucciarelli%NULL%2,             Francesco%Pucciarelli%NULL%0,             Tiziano%Polidori%NULL%2,             Tiziano%Polidori%NULL%0,             Carlotta%Rucci%NULL%2,             Carlotta%Rucci%NULL%0,             Gisella%Guido%NULL%2,             Gisella%Guido%NULL%0,             Benedetta%Bracci%NULL%2,             Benedetta%Bracci%NULL%0,             Chiara%de Dominicis%NULL%2,             Chiara%de Dominicis%NULL%0,             Andrea%Laghi%andrea.laghi@uniroma1.it%2,             Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,             Yanyan%Tang%NULL%1,             Yongkang%Mo%NULL%1,             Shengkai%Li%NULL%1,             Daiying%Lin%NULL%1,             Zhijian%Yang%NULL%1,             Zhiqi%Yang%NULL%1,             Hongfu%Sun%NULL%1,             Jinming%Qiu%NULL%1,             Yuting%Liao%NULL%1,             Jianning%Xiao%NULL%1,             Xiangguang%Chen%NULL%1,             Xianheng%Wu%NULL%1,             Renhua%Wu%NULL%1,             Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,             Xiaolong%Qi%NULL%2,             Xiaolong%Qi%NULL%0,             Soon Ho%Yoon%yshoka@gmail.com%2,             Soon Ho%Yoon%yshoka@gmail.com%0,             Sang Joon%Park%NULL%2,             Sang Joon%Park%NULL%0,             Kyung Hee%Lee%NULL%2,             Kyung Hee%Lee%NULL%0,             Jin Yong%Kim%NULL%2,             Jin Yong%Kim%NULL%0,             Young Kyung%Lee%NULL%2,             Young Kyung%Lee%NULL%0,             Hongseok%Ko%NULL%2,             Hongseok%Ko%NULL%0,             Ki Hwan%Kim%NULL%2,             Ki Hwan%Kim%NULL%0,             Chang Min%Park%NULL%2,             Chang Min%Park%NULL%0,             Yun-Hyeon%Kim%NULL%2,             Yun-Hyeon%Kim%NULL%0,             Junqiang%Lei%NULL%2,             Junqiang%Lei%NULL%0,             Jung Hee%Hong%NULL%2,             Jung Hee%Hong%NULL%0,             Hyungjin%Kim%NULL%2,             Hyungjin%Kim%NULL%0,             Eui Jin%Hwang%NULL%2,             Eui Jin%Hwang%NULL%0,             Seung Jin%Yoo%NULL%2,             Seung Jin%Yoo%NULL%0,             Ju Gang%Nam%NULL%2,             Ju Gang%Nam%NULL%0,             Chang Hyun%Lee%NULL%2,             Chang Hyun%Lee%NULL%0,             Jin Mo%Goo%NULL%2,             Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,             Akihiko%Sakata%NULL%1,             Mitsuhiro%Kirita%NULL%1,             Takashi%Hiroi%NULL%1,             Ken-ichiro%Kobayashi%NULL%1,             Kenji%Kubo%NULL%1,             Hyunjin%Kim%NULL%1,             Azusa%Nishimoto%NULL%1,             Chikara%Maeda%NULL%1,             Akira%Kawamura%NULL%1,             Nobuhiro%Komiya%NULL%1,             Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,             Huaxiang%Xu%NULL%1,             Qinglin%Shen%NULL%1,             Xianghai%Zhang%NULL%1,             Bing%Fan%26171381@qq.com%1,             Chuanhong%Wang%NULL%1,             Bingliang%Zeng%NULL%1,             Zicong%Li%NULL%1,             Xiaofen%Li%NULL%1,             Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,             Mengdi%Jin%NULL%1,             Li%Miao%NULL%1,             Xinying%Yang%NULL%1,             Peng%Huang%NULL%1,             Huanwen%Xiong%NULL%1,             Peijie%Huang%NULL%1,             Qi%Zhao%NULL%1,             Jiang%Du%NULL%1,             Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,             Yonge%Chi%NULL%2,             Yonge%Chi%NULL%0,             Liang%Zhang%NULL%2,             Liang%Zhang%NULL%0,             Huan%Liu%NULL%2,             Huan%Liu%NULL%0,             Kun%Du%NULL%1,             Zhengxing%Li%NULL%2,             Zhengxing%Li%NULL%0,             Jie%Chen%NULL%2,             Jie%Chen%NULL%0,             Liuhui%Cheng%NULL%2,             Liuhui%Cheng%NULL%0,             Daoqing%Wang%wangdaoqing1215@126.com%2,             Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,             Kai%Xie%NULL%2,             Kai%Xie%NULL%0,             Hui%Lu%NULL%1,             Lei%Xu%bayinhexl@126.com%1,             Shusheng%Zhou%zhouss108@163.com%1,             Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,             Christopher%Gieraerts%NULL%2,             Christopher%Gieraerts%NULL%0,             Yves%De Bruecker%NULL%2,             Yves%De Bruecker%NULL%0,             Lode%Janssen%NULL%2,             Lode%Janssen%NULL%0,             Hanne%Valgaeren%NULL%2,             Hanne%Valgaeren%NULL%0,             Dagmar%Obbels%NULL%2,             Dagmar%Obbels%NULL%0,             Marc%Gillis%NULL%2,             Marc%Gillis%NULL%0,             Marc%Van Ranst%NULL%2,             Marc%Van Ranst%NULL%0,             Johan%Frans%NULL%1,             Annick%Demeyere%NULL%2,             Annick%Demeyere%NULL%0,             Rolf%Symons%rolf.symons@imelda.be%2,             Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%2,              Ben%Hsieh%NULL%1,              Zeng%Xiong%NULL%2,              Zeng%Xiong%NULL%0,              Kasey%Halsey%NULL%2,              Kasey%Halsey%NULL%0,              Ji Whae%Choi%NULL%2,              Ji Whae%Choi%NULL%0,              Thi My Linh%Tran%NULL%2,              Thi My Linh%Tran%NULL%0,              Ian%Pan%NULL%2,              Ian%Pan%NULL%0,              Lin-Bo%Shi%NULL%2,              Lin-Bo%Shi%NULL%0,              Dong-Cui%Wang%NULL%1,              Ji%Mei%NULL%2,              Ji%Mei%NULL%0,              Xiao-Long%Jiang%NULL%1,              Qiu-Hua%Zeng%NULL%1,              Thomas K.%Egglin%NULL%1,              Ping-Feng%Hu%NULL%2,              Ping-Feng%Hu%NULL%0,              Saurabh%Agarwal%NULL%1,              Fangfang%Xie%NULL%2,              Fangfang%Xie%NULL%0,              Sha%Li%NULL%1,              Terrance%Healey%NULL%2,              Terrance%Healey%NULL%0,              Michael K.%Atalay%NULL%1,              Wei-Hua%Liao%liaoweihua2017@163.com%2,              Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,              Zhenlu%Yang%NULL%2,              Zhenlu%Yang%NULL%0,              Hongyan%Hou%NULL%2,              Hongyan%Hou%NULL%0,              Chenao%Zhan%NULL%1,              Chong%Chen%NULL%1,              Wenzhi%Lv%NULL%2,              Wenzhi%Lv%NULL%0,              Qian%Tao%NULL%2,              Qian%Tao%NULL%0,              Ziyong%Sun%NULL%2,              Ziyong%Sun%NULL%0,              Liming%Xia%xialiming2017@outlook.com%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%2,              Marta%Zerunian%NULL%2,              Marta%Zerunian%NULL%0,              Michela%Polici%NULL%2,              Michela%Polici%NULL%0,              Francesco%Pucciarelli%NULL%2,              Francesco%Pucciarelli%NULL%0,              Tiziano%Polidori%NULL%2,              Tiziano%Polidori%NULL%0,              Carlotta%Rucci%NULL%2,              Carlotta%Rucci%NULL%0,              Gisella%Guido%NULL%2,              Gisella%Guido%NULL%0,              Benedetta%Bracci%NULL%2,              Benedetta%Bracci%NULL%0,              Chiara%de Dominicis%NULL%2,              Chiara%de Dominicis%NULL%0,              Andrea%Laghi%andrea.laghi@uniroma1.it%2,              Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%2,              Yanyan%Tang%NULL%1,              Yongkang%Mo%NULL%1,              Shengkai%Li%NULL%1,              Daiying%Lin%NULL%1,              Zhijian%Yang%NULL%1,              Zhiqi%Yang%NULL%1,              Hongfu%Sun%NULL%1,              Jinming%Qiu%NULL%1,              Yuting%Liao%NULL%1,              Jianning%Xiao%NULL%1,              Xiangguang%Chen%NULL%1,              Xianheng%Wu%NULL%1,              Renhua%Wu%NULL%1,              Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%2,              Xiaolong%Qi%NULL%2,              Xiaolong%Qi%NULL%0,              Soon Ho%Yoon%yshoka@gmail.com%2,              Soon Ho%Yoon%yshoka@gmail.com%0,              Sang Joon%Park%NULL%2,              Sang Joon%Park%NULL%0,              Kyung Hee%Lee%NULL%2,              Kyung Hee%Lee%NULL%0,              Jin Yong%Kim%NULL%2,              Jin Yong%Kim%NULL%0,              Young Kyung%Lee%NULL%2,              Young Kyung%Lee%NULL%0,              Hongseok%Ko%NULL%2,              Hongseok%Ko%NULL%0,              Ki Hwan%Kim%NULL%2,              Ki Hwan%Kim%NULL%0,              Chang Min%Park%NULL%2,              Chang Min%Park%NULL%0,              Yun-Hyeon%Kim%NULL%2,              Yun-Hyeon%Kim%NULL%0,              Junqiang%Lei%NULL%2,              Junqiang%Lei%NULL%0,              Jung Hee%Hong%NULL%2,              Jung Hee%Hong%NULL%0,              Hyungjin%Kim%NULL%2,              Hyungjin%Kim%NULL%0,              Eui Jin%Hwang%NULL%2,              Eui Jin%Hwang%NULL%0,              Seung Jin%Yoo%NULL%2,              Seung Jin%Yoo%NULL%0,              Ju Gang%Nam%NULL%2,              Ju Gang%Nam%NULL%0,              Chang Hyun%Lee%NULL%2,              Chang Hyun%Lee%NULL%0,              Jin Mo%Goo%NULL%2,              Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%2,              Akihiko%Sakata%NULL%1,              Mitsuhiro%Kirita%NULL%1,              Takashi%Hiroi%NULL%1,              Ken-ichiro%Kobayashi%NULL%1,              Kenji%Kubo%NULL%1,              Hyunjin%Kim%NULL%1,              Azusa%Nishimoto%NULL%1,              Chikara%Maeda%NULL%1,              Akira%Kawamura%NULL%1,              Nobuhiro%Komiya%NULL%1,              Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%2,              Huaxiang%Xu%NULL%1,              Qinglin%Shen%NULL%1,              Xianghai%Zhang%NULL%1,              Bing%Fan%26171381@qq.com%1,              Chuanhong%Wang%NULL%1,              Bingliang%Zeng%NULL%1,              Zicong%Li%NULL%1,              Xiaofen%Li%NULL%1,              Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%2,              Mengdi%Jin%NULL%1,              Li%Miao%NULL%1,              Xinying%Yang%NULL%1,              Peng%Huang%NULL%1,              Huanwen%Xiong%NULL%1,              Peijie%Huang%NULL%1,              Qi%Zhao%NULL%1,              Jiang%Du%NULL%1,              Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%2,              Yonge%Chi%NULL%2,              Yonge%Chi%NULL%0,              Liang%Zhang%NULL%2,              Liang%Zhang%NULL%0,              Huan%Liu%NULL%2,              Huan%Liu%NULL%0,              Kun%Du%NULL%1,              Zhengxing%Li%NULL%2,              Zhengxing%Li%NULL%0,              Jie%Chen%NULL%2,              Jie%Chen%NULL%0,              Liuhui%Cheng%NULL%2,              Liuhui%Cheng%NULL%0,              Daoqing%Wang%wangdaoqing1215@126.com%2,              Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,              Kai%Xie%NULL%2,              Kai%Xie%NULL%0,              Hui%Lu%NULL%1,              Lei%Xu%bayinhexl@126.com%1,              Shusheng%Zhou%zhouss108@163.com%1,              Shiyuan%Fang%fangshiyuan2008@126.com%1]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%2,              Christopher%Gieraerts%NULL%2,              Christopher%Gieraerts%NULL%0,              Yves%De Bruecker%NULL%2,              Yves%De Bruecker%NULL%0,              Lode%Janssen%NULL%2,              Lode%Janssen%NULL%0,              Hanne%Valgaeren%NULL%2,              Hanne%Valgaeren%NULL%0,              Dagmar%Obbels%NULL%2,              Dagmar%Obbels%NULL%0,              Marc%Gillis%NULL%2,              Marc%Gillis%NULL%0,              Marc%Van Ranst%NULL%2,              Marc%Van Ranst%NULL%0,              Johan%Frans%NULL%1,              Annick%Demeyere%NULL%2,              Annick%Demeyere%NULL%0,              Rolf%Symons%rolf.symons@imelda.be%2,              Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0, Ben%Hsieh%NULL%2, Zeng%Xiong%NULL%4, Zeng%Xiong%NULL%0, Kasey%Halsey%NULL%4, Kasey%Halsey%NULL%0, Ji Whae%Choi%NULL%4, Ji Whae%Choi%NULL%0, Thi My Linh%Tran%NULL%4, Thi My Linh%Tran%NULL%0, Ian%Pan%NULL%4, Ian%Pan%NULL%0, Lin-Bo%Shi%NULL%4, Lin-Bo%Shi%NULL%0, Dong-Cui%Wang%NULL%2, Ji%Mei%NULL%4, Ji%Mei%NULL%0, Xiao-Long%Jiang%NULL%2, Qiu-Hua%Zeng%NULL%2, Thomas K.%Egglin%NULL%2, Ping-Feng%Hu%NULL%4, Ping-Feng%Hu%NULL%0, Saurabh%Agarwal%NULL%2, Fangfang%Xie%NULL%4, Fangfang%Xie%NULL%0, Sha%Li%NULL%2, Terrance%Healey%NULL%4, Terrance%Healey%NULL%0, Michael K.%Atalay%NULL%2, Wei-Hua%Liao%liaoweihua2017@163.com%4, Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>Radiological Society of North America</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0, Zhenlu%Yang%NULL%0, Zhenlu%Yang%NULL%0, Hongyan%Hou%NULL%0, Hongyan%Hou%NULL%0, Chenao%Zhan%NULL%0, Chong%Chen%NULL%0, Wenzhi%Lv%NULL%0, Wenzhi%Lv%NULL%0, Qian%Tao%NULL%0, Qian%Tao%NULL%0, Ziyong%Sun%NULL%0, Ziyong%Sun%NULL%0, Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0, Marta%Zerunian%NULL%4, Marta%Zerunian%NULL%0, Michela%Polici%NULL%4, Michela%Polici%NULL%0, Francesco%Pucciarelli%NULL%4, Francesco%Pucciarelli%NULL%0, Tiziano%Polidori%NULL%4, Tiziano%Polidori%NULL%0, Carlotta%Rucci%NULL%4, Carlotta%Rucci%NULL%0, Gisella%Guido%NULL%4, Gisella%Guido%NULL%0, Benedetta%Bracci%NULL%4, Benedetta%Bracci%NULL%0, Chiara%de Dominicis%NULL%4, Chiara%de Dominicis%NULL%0, Andrea%Laghi%andrea.laghi@uniroma1.it%4, Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0, Yanyan%Tang%NULL%2, Yongkang%Mo%NULL%2, Shengkai%Li%NULL%2, Daiying%Lin%NULL%2, Zhijian%Yang%NULL%2, Zhiqi%Yang%NULL%2, Hongfu%Sun%NULL%2, Jinming%Qiu%NULL%2, Yuting%Liao%NULL%2, Jianning%Xiao%NULL%2, Xiangguang%Chen%NULL%2, Xianheng%Wu%NULL%2, Renhua%Wu%NULL%2, Zhuozhi%Dai%zhuozhi@ualberta.ca%2]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0, Xiaolong%Qi%NULL%5, Xiaolong%Qi%NULL%0, Soon Ho%Yoon%yshoka@gmail.com%4, Soon Ho%Yoon%yshoka@gmail.com%0, Sang Joon%Park%NULL%4, Sang Joon%Park%NULL%0, Kyung Hee%Lee%NULL%4, Kyung Hee%Lee%NULL%0, Jin Yong%Kim%NULL%0, Jin Yong%Kim%NULL%0, Young Kyung%Lee%NULL%4, Young Kyung%Lee%NULL%0, Hongseok%Ko%NULL%4, Hongseok%Ko%NULL%0, Ki Hwan%Kim%NULL%4, Ki Hwan%Kim%NULL%0, Chang Min%Park%NULL%4, Chang Min%Park%NULL%0, Yun-Hyeon%Kim%NULL%4, Yun-Hyeon%Kim%NULL%0, Junqiang%Lei%NULL%0, Junqiang%Lei%NULL%0, Jung Hee%Hong%NULL%4, Jung Hee%Hong%NULL%0, Hyungjin%Kim%NULL%4, Hyungjin%Kim%NULL%0, Eui Jin%Hwang%NULL%4, Eui Jin%Hwang%NULL%0, Seung Jin%Yoo%NULL%4, Seung Jin%Yoo%NULL%0, Ju Gang%Nam%NULL%4, Ju Gang%Nam%NULL%0, Chang Hyun%Lee%NULL%4, Chang Hyun%Lee%NULL%0, Jin Mo%Goo%NULL%4, Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0, Akihiko%Sakata%NULL%2, Mitsuhiro%Kirita%NULL%2, Takashi%Hiroi%NULL%2, Ken-ichiro%Kobayashi%NULL%2, Kenji%Kubo%NULL%2, Hyunjin%Kim%NULL%2, Azusa%Nishimoto%NULL%2, Chikara%Maeda%NULL%2, Akira%Kawamura%NULL%2, Nobuhiro%Komiya%NULL%2, Shigeaki%Umeoka%NULL%2]</t>
+  </si>
+  <si>
+    <t>Springer Singapore</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0, Huaxiang%Xu%NULL%2, Qinglin%Shen%NULL%2, Xianghai%Zhang%NULL%2, Bing%Fan%26171381@qq.com%3, Chuanhong%Wang%NULL%2, Bingliang%Zeng%NULL%2, Zicong%Li%NULL%2, Xiaofen%Li%NULL%3, Honglu%Li%NULL%2]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0, Mengdi%Jin%NULL%2, Li%Miao%NULL%2, Xinying%Yang%NULL%2, Peng%Huang%NULL%3, Huanwen%Xiong%NULL%2, Peijie%Huang%NULL%2, Qi%Zhao%NULL%2, Jiang%Du%NULL%0, Jiang%Hong%NULL%2]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0, Yonge%Chi%NULL%4, Yonge%Chi%NULL%0, Liang%Zhang%NULL%4, Liang%Zhang%NULL%0, Huan%Liu%NULL%5, Huan%Liu%NULL%0, Kun%Du%NULL%2, Zhengxing%Li%NULL%4, Zhengxing%Li%NULL%0, Jie%Chen%NULL%0, Jie%Chen%NULL%0, Liuhui%Cheng%NULL%4, Liuhui%Cheng%NULL%0, Daoqing%Wang%wangdaoqing1215@126.com%4, Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0, Kai%Xie%NULL%0, Kai%Xie%NULL%0, Hui%Lu%NULL%0, Lei%Xu%bayinhexl@126.com%0, Shusheng%Zhou%zhouss108@163.com%0, Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0, Christopher%Gieraerts%NULL%4, Christopher%Gieraerts%NULL%0, Yves%De Bruecker%NULL%4, Yves%De Bruecker%NULL%0, Lode%Janssen%NULL%4, Lode%Janssen%NULL%0, Hanne%Valgaeren%NULL%4, Hanne%Valgaeren%NULL%0, Dagmar%Obbels%NULL%4, Dagmar%Obbels%NULL%0, Marc%Gillis%NULL%4, Marc%Gillis%NULL%0, Marc%Van Ranst%NULL%0, Marc%Van Ranst%NULL%0, Johan%Frans%NULL%3, Annick%Demeyere%NULL%4, Annick%Demeyere%NULL%0, Rolf%Symons%rolf.symons@imelda.be%5, Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1486,7 @@
         <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
@@ -1381,10 +1498,10 @@
         <v>39</v>
       </c>
       <c r="I2" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="J2" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1401,7 +1518,7 @@
         <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
         <v>99</v>
@@ -1413,10 +1530,10 @@
         <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1433,7 +1550,7 @@
         <v>47</v>
       </c>
       <c r="E4" t="s">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="F4" t="s">
         <v>31</v>
@@ -1445,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="J4" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1465,7 +1582,7 @@
         <v>102</v>
       </c>
       <c r="E5" t="s">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="F5" t="s">
         <v>32</v>
@@ -1477,10 +1594,10 @@
         <v>40</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="J5" t="s">
-        <v>55</v>
+        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1491,28 +1608,28 @@
         <v>44013</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>253</v>
+        <v>28</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="I6" t="s">
         <v>55</v>
       </c>
       <c r="J6" t="s">
-        <v>181</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -1529,7 +1646,7 @@
         <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
@@ -1541,10 +1658,10 @@
         <v>41</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="J7" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1561,7 +1678,7 @@
         <v>110</v>
       </c>
       <c r="E8" t="s">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="F8" t="s">
         <v>34</v>
@@ -1573,10 +1690,10 @@
         <v>42</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>55</v>
       </c>
       <c r="J8" t="s">
-        <v>55</v>
+        <v>291</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1593,7 +1710,7 @@
         <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="F9" t="s">
         <v>35</v>
@@ -1605,10 +1722,10 @@
         <v>43</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1625,7 +1742,7 @@
         <v>116</v>
       </c>
       <c r="E10" t="s">
-        <v>257</v>
+        <v>294</v>
       </c>
       <c r="F10" t="s">
         <v>58</v>
@@ -1637,10 +1754,10 @@
         <v>118</v>
       </c>
       <c r="I10" t="s">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="J10" t="s">
-        <v>55</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1657,7 +1774,7 @@
         <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>258</v>
+        <v>296</v>
       </c>
       <c r="F11" t="s">
         <v>59</v>
@@ -1669,10 +1786,10 @@
         <v>122</v>
       </c>
       <c r="I11" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1689,7 +1806,7 @@
         <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>259</v>
+        <v>297</v>
       </c>
       <c r="F12" t="s">
         <v>36</v>
@@ -1701,10 +1818,10 @@
         <v>44</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="J12" t="s">
-        <v>55</v>
+        <v>298</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1721,7 +1838,7 @@
         <v>51</v>
       </c>
       <c r="E13" t="s">
-        <v>260</v>
+        <v>299</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -1733,10 +1850,10 @@
         <v>45</v>
       </c>
       <c r="I13" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="J13" t="s">
-        <v>55</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
